--- a/meta/Output_DNS_Metadaten_De.xlsx
+++ b/meta/Output_DNS_Metadaten_De.xlsx
@@ -55,6 +55,9 @@
     <t>Titel_2_DE</t>
   </si>
   <si>
+    <t>Einheit_De</t>
+  </si>
+  <si>
     <t>Intention_DE</t>
   </si>
   <si>
@@ -142,7 +145,7 @@
     <t>Materielle Deprivation</t>
   </si>
   <si>
-    <t>Materielle Deprivation beschreibt den Mangel an bestimmten Gebrauchsgütern und den unfreiwilligen Verzicht auf ausgewählten Konsum aus finanziellen Gründen. Die beiden Indikatoren geben den Anteil der Personen an der Gesamtbevölkerung an, die als materiell depriviert (1.1.a) bzw. als erheblich materiell depriviert (1.1.b) gelten. Die (erhebliche) materielle Entbehrung trifft für alle Menschen zu, deren Haushalt von neun vorgegebenen Kriterien, die die finanziellen Einschränkungen des Haushalts widerspiegeln, mindestens drei (erheblich materiell depriviert: mindestens vier) erfüllt.</t>
+    <t>"Materielle Deprivation beschreibt den Mangel an bestimmten Gebrauchsgütern und den unfreiwilligen Verzicht auf ausgewählten Konsum aus finanziellen Gründen. Die beiden Indikatoren geben den Anteil der Personen an der Gesamtbevölkerung an, die als materiell depriviert (1.1.a) bzw. als erheblich materiell depriviert (1.1.b) gelten. Die (erhebliche) materielle Entbehrung trifft für alle Menschen zu, deren Haushalt von neun vorgegebenen Kriterien, die die finanziellen Einschränkungen des Haushalts widerspiegeln, mindestens drei (erheblich materiell depriviert: mindestens vier) erfüllt."</t>
   </si>
   <si>
     <t>1.1.a,b</t>
@@ -241,8 +244,7 @@
     <t>Institut für Pflanzenbau und Bodenkunde, Julius Kühn-Institut</t>
   </si>
   <si>
-    <t>Institut für Landschaftsökologie und Ressourcenmanagement,
-Universität Gießen</t>
+    <t>Institut für Landschaftsökologie und Ressourcenmanagement, Universität Gießen</t>
   </si>
   <si>
     <t>2016 vorläufige Daten.</t>
@@ -299,10 +301,7 @@
     <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
   </si>
   <si>
-    <t>Der Indikator misst in Prozent den Anteil der ausgezahlten Mittel an den Gesamtausgaben für Ernährungssicherung,
-mit dem die relevanten internationalen Normen und Empfehlungen zur Verwirklichung des Rechts
-auf Nahrung (definiert nach dem Global Strategic Framework des Ausschusses für die Welternährungssicherung
-der Vereinten Nationen) angewendet werden.</t>
+    <t>Der Indikator misst in Prozent den Anteil der ausgezahlten Mittel an den Gesamtausgaben für Ernährungssicherung, mit dem die relevanten internationalen Normen und Empfehlungen zur Verwirklichung des Rechts auf Nahrung (definiert nach dem Global Strategic Framework des Ausschusses für die Welternährungssicherung der Vereinten Nationen) angewendet werden.</t>
   </si>
   <si>
     <t>Zahlungen vorrangig an Entwicklungs- und Schwellenländer zur Unterstützung guter Regierungsführung für Ernährungssicherung</t>
@@ -317,8 +316,7 @@
     <t>Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ)</t>
   </si>
   <si>
-    <t>Für die Jahre 2012 und 2014 ist der Anteil der öffentlichen Entwicklungsausgaben zur Unterstützung guter
-Regierungsführung im Bereich Ernährungssicherung nicht bekannt.</t>
+    <t>Für die Jahre 2012 und 2014 ist der Anteil der öffentlichen Entwicklungsausgaben zur Unterstützung guter Regierungsführung im Bereich Ernährungssicherung nicht bekannt.</t>
   </si>
   <si>
     <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses an den Gesamtausgaben für Ernährungssicherung bis 2030</t>
@@ -435,7 +433,7 @@
     <t>d) Erwachsene</t>
   </si>
   <si>
-    <t>Senkung auf 19 % bis 2030 bis 2030</t>
+    <t>Senkung auf 19 % bis 2030</t>
   </si>
   <si>
     <t>031e</t>
@@ -462,8 +460,7 @@
     <t>Robert Koch-Institut (RKI)</t>
   </si>
   <si>
-    <t>Der Vergleich von KiGGS-Basiserhebung (2003 bis 2006) und KiGGS Welle 2 (2014 bis 2017) basiert ausschließlich auf Metadaten und
-ist auf die Bevölkerung 2015 altersstandardisiert.</t>
+    <t>Der Vergleich von KiGGS-Basiserhebung (2003 bis 2006) und KiGGS Welle 2 (2014 bis 2017) basiert ausschließlich auf Metadaten und ist auf die Bevölkerung 2015 altersstandardisiert.</t>
   </si>
   <si>
     <t>Anstieg dauerhaft stoppen</t>
@@ -523,8 +520,7 @@
     <t>Umweltbundesamt (UBA)</t>
   </si>
   <si>
-    <t>Schwefeldioxid (SO2), Stickstoffoxide (NOx ), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2,5),
-gemittelter Index der Messzahlen.</t>
+    <t>Schwefeldioxid (SO2), Stickstoffoxide (NOx ), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2,5), gemittelter Index der Messzahlen.</t>
   </si>
   <si>
     <t>Reduktion der Emissionen des Jahres 2005 auf 55 % bis 2030</t>
@@ -542,8 +538,7 @@
     <t>Der Indikator zeigt die Anzahl an Personen, die an ihrem Wohnort im Jahresmittel einer Exposition von mehr als 20 Mikrogramm Feinstaub PM10 (Staubteilchen mit einem Durchmesser kleiner 10 Mikrometer) pro Kubikmeter (m³) Luft ausgesetzt waren (nur Hintergrundbelastungen, ohne lokale Quellen).</t>
   </si>
   <si>
-    <t>Feinstaubexposition (PM10) oberhalb des WHO-Richtwertes von mindestens 20 Mikrogramm pro m3 Luft
-im Jahresmittel</t>
+    <t>Feinstaubexposition (PM10) oberhalb des WHO-Richtwertes von mindestens 20 Mikrogramm pro m3 Luft im Jahresmittel</t>
   </si>
   <si>
     <t>Bevölkerung, in Millionen</t>
@@ -555,9 +550,6 @@
     <t>Weltgesundheitsorganisation (WHO)</t>
   </si>
   <si>
-    <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/m3 für  M10 im Jahresmittel möglichst flächendeckend bis 2030</t>
-  </si>
-  <si>
     <t>041a</t>
   </si>
   <si>
@@ -615,9 +607,7 @@
     <t>Anteil an allen 30- bis 34-Jährigen in %</t>
   </si>
   <si>
-    <t>Eine hoch entwickelte Volkswirtschaft wie die deutsche, in der der Dienstleistungssektor und der Bedarf an Wissen und Expertise immer stärker in den Vordergrund rücken, benötigt hoch qualifizierte Arbeitskräfte. Der Wert des Indikators soll daher bis zum Jahr 2020 auf 42 % steigen.Diese Zielsetzung lehnt sich an das Ziel der Strategie „Europa 2020“ der Europäischen Union an:
-Bis 2020 soll ein Anteil von 40 % der 30- bis 34-Jährigen in der Europäischen Union über einen
-tertiären Abschluss verfügen.</t>
+    <t>"Eine hoch entwickelte Volkswirtschaft wie die deutsche, in der der Dienstleistungssektor und der Bedarf an Wissen und Expertise immer stärker in den Vordergrund rücken, benötigt hoch qualifizierte Arbeitskräfte. Der Wert des Indikators soll daher bis zum Jahr 2020 auf 42 % steigen.Diese Zielsetzung lehnt sich an das Ziel der Strategie „Europa 2020“ der Europäischen Union an: Bis 2020 soll ein Anteil von 40 % der 30- bis 34-Jährigen in der Europäischen Union über einen tertiären Abschluss verfügen."</t>
   </si>
   <si>
     <t>Steigerung des Anteils auf 42 % bis 2020</t>
@@ -764,8 +754,7 @@
     <t>Der Indikator gibt die Anzahl der Mädchen und Frauen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden.</t>
   </si>
   <si>
-    <t>Mädchen und Frauen, die durch berufliche Qualifizierungsmaßnahmen
-deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
+    <t>Mädchen und Frauen, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
   </si>
   <si>
     <t>in Tausend</t>
@@ -810,13 +799,10 @@
     <t>Der Indikator gibt den Anteil derjenigen Messstellen an, an denen die gewässertypischen Orientierungswerte des guten ökologischen Zustands für Phosphor in Fließgewässern eingehalten werden.</t>
   </si>
   <si>
-    <t>Anteil der Messstellen, an denen der Orientierungswert des guten ökologischen Zustands für Gesamt-Phosphor 
-eingehalten wird, in %</t>
-  </si>
-  <si>
-    <t>Phosphor gelangt in Deutschland heute etwa je zur Hälfte aus der Landwirtschaft und aus Städten (kommunale Kläranlagen und Regenwasserabläufe) in die Fließgewässer. Es ist neben der Belastung durch Nitrat einer der Gründe, warum es in Flüssen, Seen und Meeren zu einer
-Überversorgung mit Nährstoffen (Eutrophierung) kommt. Folgen davon sind Algenwachstum,
-Sauerstoffarmut bis hin zum Fischsterben oder zum Aufkommen giftiger Blaualgen. Daher wurde als Ziel für das Jahr 2030 festgelegt, dass die gewässertypischen Orientierungswerte, die in der Oberflächengewässerverordnung angegeben sind, an allen Messstellen eingehalten werden.</t>
+    <t>Anteil der Messstellen, an denen der Orientierungswert des guten ökologischen Zustands für Gesamt-Phosohor eingehalten wird, in %</t>
+  </si>
+  <si>
+    <t>Phosphor gelangt in Deutschland heute etwa je zur Hälfte aus der Landwirtschaft und aus Städten (kommunale Kläranlagen und Regenwasserabläufe) in die Fließgewässer. Es ist neben der Belastung durch Nitrat einer der Gründe, warum es in Flüssen, Seen und Meeren zu einer Überversorgung mit Nährstoffen (Eutrophierung) kommt. Folgen davon sind Algenwachstum, Sauerstoffarmut bis hin zum Fischsterben oder zum Aufkommen giftiger Blaualgen. Daher wurde als Ziel für das Jahr 2030 festgelegt, dass die gewässertypischen Orientierungswerte, die in der Oberflächengewässerverordnung angegeben sind, an allen Messstellen eingehalten werden.</t>
   </si>
   <si>
     <t>Umweltbundesamt (UBA) nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser</t>
@@ -846,7 +832,7 @@
     <t>Umweltbundesamt (UBA) und Länderinitiative Kernindikatoren auf Basis von Daten der Bund/Länder-Arbeitsgemeinschaft Wasser</t>
   </si>
   <si>
-    <t>Basis: EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel</t>
+    <t>"Basis: EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel"</t>
   </si>
   <si>
     <t>Einhaltung des Nitrat- Schwellenwertes von 50 mg/l an allen Messstellen bis 2030</t>
@@ -924,9 +910,7 @@
     <t>2008 = 100</t>
   </si>
   <si>
-    <t>Die Senkung des Energieverbrauchs durch eine Steigerung der Energieeffizienz ist neben dem Ausbau erneuerbarer Energien die zweite tragende Säule der Energiewende. Ziel ist es, mit möglichst wenig Energie viel wirtschaftliche Leistung zu erreichen. Energieeinsparung schont
-Klima und Umwelt, trägt zur Verbesserung der Versorgungssicherheit und der Wettbewerbsfähigkeit
-der Industrie bei. Nach dem Energiekonzept der Bundesregierung soll die Endenergieproduktivität im Zeitraum 2008 bis 2050 jährlich um 2,1 % erhöht werden. Gleichzeitig soll sich der Primärenergieverbrauch bis 2020 um 20 % und bis 2050 um 50 % gegenüber dem Jahr 2008 verringern.Diese Ziele werden auch hier zugrunde gelegt.</t>
+    <t>Die Senkung des Energieverbrauchs durch eine Steigerung der Energieeffizienz ist neben dem Ausbau erneuerbarer Energien die zweite tragende Säule der Energiewende. Ziel ist es, mit möglichst wenig Energie viel wirtschaftliche Leistung zu erreichen. Energieeinsparung schont Klima und Umwelt, trägt zur Verbesserung der Versorgungssicherheit und der Wettbewerbsfähigkeit der Industrie bei. Nach dem Energiekonzept der Bundesregierung soll die Endenergieproduktivität im Zeitraum 2008 bis 2050 jährlich um 2,1 % erhöht werden. Gleichzeitig soll sich der Primärenergieverbrauch bis 2020 um 20 % und bis 2050 um 50 % gegenüber dem Jahr 2008 verringern.Diese Ziele werden auch hier zugrunde gelegt.</t>
   </si>
   <si>
     <t>Arbeitsgemeinschaft Energiebilanzen e. V.</t>
@@ -986,7 +970,7 @@
     <t>Die Reserven fossiler Energieträger wie Öl und Gas sind begrenzt, gleichzeitig ist ihre Nutzung mit der Emission von Treibhausgasen verbunden. Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, verringert die energetisch bedingten Emissionenund damit das Ausmaß des Klimawandels. Zusätzlich werden die Abhängigkeit von Energieimporten und der Ressourcenverbrauch gemindert sowie technische Innovationen gefördert. Ziel der Bundesregierung ist es daher, den Anteil der erneuerbaren Energien am Brutto-Endenergieverbrauch bis zum Jahr 2020 auf 18 %, bis 2030 auf 30 % und bis 2050 auf 60 % zu erhöhen.</t>
   </si>
   <si>
-    <t>Arbeitsgruppe Erneuerbare Energien-Statistik, Bundesministerium für Wirtschaft und Energie (BMWI); Datenstand: August 2018</t>
+    <t>"Arbeitsgruppe Erneuerbare Energien-Statistik, Bundesministerium für Wirtschaft und Energie (BMWI); Datenstand: August 2018"</t>
   </si>
   <si>
     <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030 und auf 60 % bis 2050</t>
@@ -1079,10 +1063,10 @@
     <t>Solide Staatsfinanzen sind ein wichtiger Beitrag zu einer nachhaltigen Finanzpolitik. Eine Politik, die heutige Staatsausgaben übermäßig durch Neuverschuldung finanzieren würde und die Rückzahlung dieser Schulden allein zukünftigen Generationen überließe, wäre nicht tragfähig. Entsprechend den Konvergenzkriterien für die Europäische Union (sogenannte Maastricht-Kriterien) soll das jährliche Staatsdefizit weniger als 3 % des BIP betragen. Das strukturelle Defizit soll maximal 0,5 % des BIP betragen. Dies entspricht den Vorgaben des europäischen Stabilitäts- und Wachstumspaktes. Der Grundsatz des strukturell ausgeglichenen Haushalts ist seit 2009 auch im Grundgesetz verankert (Artikel 109, sogenannte Schuldenbremse).</t>
   </si>
   <si>
-    <t>Statistisches Bundesamt (Destatis), Stand: August 2018</t>
-  </si>
-  <si>
-    <t>Bundesministerium der Finanzen (BMF), Stand: Juli 2018</t>
+    <t>"Statistisches Bundesamt (Destatis), Stand: August 2018"</t>
+  </si>
+  <si>
+    <t>"Bundesministerium der Finanzen (BMF), Stand: Juli 2018"</t>
   </si>
   <si>
     <t>Vorjahrespreise verkettet, 2010 = 100.</t>
@@ -1130,7 +1114,7 @@
     <t>Im Stabilitäts- und Wachstumspakt der Europäischen Union ist der Referenzwert für die maximale Schuldenstandsquote auf 60 % festgelegt. Dies ist auch die für diesen Bericht relevante nationale Zielwertobergrenze des Indikators.</t>
   </si>
   <si>
-    <t>Deutsche Bundesbank, Stand: September 2018</t>
+    <t>"Deutsche Bundesbank, Stand: September 2018"</t>
   </si>
   <si>
     <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
@@ -1355,8 +1339,7 @@
     <t>Anteil an allen ausländischen Abgängerinnen und Abgängern eines Jahres in %</t>
   </si>
   <si>
-    <t>Die Integration der in Deutschland lebenden Ausländerinnen und Ausländer ist eine wichtige Voraussetzung für den sozialen Zusammenhalt unserer Gesellschaft. Grundbedingung für eine erfolgreiche Integration ist eine ausreichende schulische Qualifizierung, die berufliche Ausbildungs- und Erwerbsmöglichkeiten eröffnet. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 den Anteil ausländischer Schulabsolventinnen und -absolventen, die mindestens einen Hauptschulabschluss erreichen, zu erhöhen und den Anteil an die Quote deutscher Schulabsolventinnen
-und -absolventen anzugleichen.</t>
+    <t>Die Integration der in Deutschland lebenden Ausländerinnen und Ausländer ist eine wichtige Voraussetzung für den sozialen Zusammenhalt unserer Gesellschaft. Grundbedingung für eine erfolgreiche Integration ist eine ausreichende schulische Qualifizierung, die berufliche Ausbildungs- und Erwerbsmöglichkeiten eröffnet. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 den Anteil ausländischer Schulabsolventinnen und -absolventen, die mindestens einen Hauptschulabschluss erreichen, zu erhöhen und den Anteil an die Quote deutscher Schulabsolventinnen und -absolventen anzugleichen.</t>
   </si>
   <si>
     <t>Erhöhung des Anteils  der ausländischen Schulabgänger mit mindestens Hauptschulabschluss bis 2030</t>
@@ -1395,8 +1378,7 @@
     <t>Deutsches Institut für Wirtschaftsforschung</t>
   </si>
   <si>
-    <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens unterhalb des EU Durchschnittswerts
-bis 2030</t>
+    <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens unterhalb des EU Durchschnittswerts bis 2030</t>
   </si>
   <si>
     <t>111a</t>
@@ -1429,8 +1411,7 @@
     <t>in Hektar pro Tag</t>
   </si>
   <si>
-    <t>Fläche ist eine begrenzte Ressource. Um ihre Nutzung konkurrieren beispielsweise Land- und Forstwirtschaft, Siedlung und Verkehr, Naturschutz, Rohstoffabbau und Energieerzeugung. Die Inanspruchnahme zusätzlicher Flächen für Siedlungs- und Verkehrszwecke soll bis zum Jahr 2030
-auf unter 30 Hektar pro Tag begrenzt werden.</t>
+    <t>Fläche ist eine begrenzte Ressource. Um ihre Nutzung konkurrieren beispielsweise Land- und Forstwirtschaft, Siedlung und Verkehr, Naturschutz, Rohstoffabbau und Energieerzeugung. Die Inanspruchnahme zusätzlicher Flächen für Siedlungs- und Verkehrszwecke soll bis zum Jahr 2030 auf unter 30 Hektar pro Tag begrenzt werden.</t>
   </si>
   <si>
     <t>Senkung des Anstiegs auf 30 ha minus x pro Tag bis 2030</t>
@@ -1460,8 +1441,7 @@
     <t>Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
   </si>
   <si>
-    <t>Mit der Umstellung der Datengrundlage zum Stichtag 31.12.2016 kam ein neuer Nutzungsartenkatalog zur Anwendung, sodass keine
-Veränderung von 2015 auf 2016 ermittelt werden kann. Zeitvergleiche sind damit nur sehr eingeschränkt möglich.</t>
+    <t>Mit der Umstellung der Datengrundlage zum Stichtag 31.12.2016 kam ein neuer Nutzungsartenkatalog zur Anwendung, sodass keine Veränderung von 2015 auf 2016 ermittelt werden kann. Zeitvergleiche sind damit nur sehr eingeschränkt möglich.</t>
   </si>
   <si>
     <t>Verringerung des einwohnerbezogenen Freiflächenverlusts</t>
@@ -1587,8 +1567,7 @@
     <t>Hohe Wohnkosten führen dazu, dass Haushalte in ihren übrigen Konsumentscheidungen eingeschränkt werden. Ausgaben für Wohnen von mehr als 40 % des verfügbaren Haushaltseinkommens werden als Überlastung angesehen. Der Anteil der Personen, die in Haushalten leben, die mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben, soll deshalb bis zum Jahr 2030 auf 13 % gesenkt werden.</t>
   </si>
   <si>
-    <t>Senkung des Anteils der Bevölkerung, der
-in Haushalten lebt, die mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben, auf 13 % bis 2030</t>
+    <t>Senkung des Anteils der Bevölkerung, der in Haushalten lebt, die mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben, auf 13 % bis 2030</t>
   </si>
   <si>
     <t>121a</t>
@@ -1630,8 +1609,7 @@
     <t>Agrarmarkt Informations-Gesellschaft mbH</t>
   </si>
   <si>
-    <t>Bund Ökologische Lebensmittelwirtschaft
-e. V.</t>
+    <t>Bund Ökologische Lebensmittelwirtschaft e. V.</t>
   </si>
   <si>
     <t>Verkehrsclub Deutschland e. V.</t>
@@ -1763,7 +1741,7 @@
     <t>Treibhausgasemissionen</t>
   </si>
   <si>
-    <t>Der Indikator zeigt die Emissionen folgender Treibhausgase (Stoffe oder Stoffgruppen) in CO2-Äquivalenten: Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC), perfluorierte Kohlenwasserstoffe (FKW/PFC) sowie Schwefelhexafluorid (SF6 ).</t>
+    <t>"Der Indikator zeigt die Emissionen folgender Treibhausgase (Stoffe oder Stoffgruppen) in CO2-Äquivalenten: Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC), perfluorierte Kohlenwasserstoffe (FKW/PFC) sowie Schwefelhexafluorid (SF6 )."</t>
   </si>
   <si>
     <t>Treibhausgasemissionen in CO2-Äquivalenten</t>
@@ -1775,9 +1753,7 @@
     <t>Die globale Durchschnittstemperatur auf der Erdoberfläche steigt aufgrund der zunehmenden Konzentration von Kohlendioxid und anderen Treibhausgasen in der Atmosphäre kontinuierlich an, mit bereits heute nachweisbaren Folgen für das Klimasystem. Ziel der Bundesregierung ist es daher, bis zum Jahr 2020 die Treibhausgasemissionen in Deutschland um mindestens 40 % gegenüber 1990 zu senken. Weitere Ziele sind die Reduktion um mindestens 55 % bis 2030, um mindestens 70 % bis 2040 sowie um 80 bis 95 % bis 2050 – jeweils gegenüber 1990.</t>
   </si>
   <si>
-    <t>2017 vorläufige Zeitnahprognose.
-Treibhausgase = Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Schwefelhexafluorid (SF6), Stickstofftrifluorid (NF3), teilhalogenierte
-Fluorkohlenwasserstoffe (H-FKW/HFC) und perfluorierte Kohlenwasserstoffe (FKW/PFC).</t>
+    <t>2017 vorläufige Zeitnahprognose. Treibhausgase = Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Schwefelhexafluorid (SF6), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC) und perfluorierte Kohlenwasserstoffe (FKW/PFC).</t>
   </si>
   <si>
     <t>Reduzierung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, um mindestens 70 % bis 2040 und um 80 bis 95 % bis 2050 jeweils gegenüber 1990</t>
@@ -1795,8 +1771,7 @@
     <t>Der Indikator umfasst die Finanzierung von Maßnahmen zur Reduktion von Treibhausgasen zur Anpassung an den Klimawandel sowie klimarelevante Maßnahmen zum Erhalt der Biodiversität und zum Waldschutz/ REDD+ (Projekte zum Schutz, nachhaltiger Nutzung und Wiederaufforstung von Wald). Die Finanzierung erfolgt vorrangig in Entwicklungs- und Schwellenländern und aus deutschen Haushaltsmitteln, einschließlich der Schenkungselemente von Entwicklungskrediten, die Haushaltsmittel enthalten.</t>
   </si>
   <si>
-    <t>Deutsche Zahlungen vorrangig an Entwicklungs- und Schwellenländer 
-zur Klimafinanzierung</t>
+    <t>Deutsche Zahlungen vorrangig an Entwicklungs- und Schwellenländer zur Klimafinanzierung</t>
   </si>
   <si>
     <t>in Milliarden Euro</t>
@@ -1913,8 +1888,7 @@
     <t>Bundesamt für Naturschutz (BfN), August 2018</t>
   </si>
   <si>
-    <t>Der Teilindikator zu den Alpen ist derzeit über die gesamte Datenreihe ausgesetzt. Die historischen Werte für 1970 und 1975 sind
-rekonstruiert. Die Zielwerte für die Teilindikatoren und den Gesamtindikator sollen bis zum Jahr 2020 überprüft werden.</t>
+    <t>Der Teilindikator zu den Alpen ist derzeit über die gesamte Datenreihe ausgesetzt. Die historischen Werte für 1970 und 1975 sind rekonstruiert. Die Zielwerte für die Teilindikatoren und den Gesamtindikator sollen bis zum Jahr 2020 überprüft werden.</t>
   </si>
   <si>
     <t>Anstieg auf den Indexwert 100 bis 2030</t>
@@ -1971,8 +1945,7 @@
     <t>Der Indikator zeigt die Auszahlungen Deutschlands an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk.</t>
   </si>
   <si>
-    <t>Zahlungen an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt 
-bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk</t>
+    <t>Zahlungen an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk</t>
   </si>
   <si>
     <t>Die Vermeidung von Entwaldung und Walddegradierung (Schädigung), eine nachhaltige Waldbewirtschaftung sowie der Wiederaufbau von Wäldern und Aufforstung tragen mittelbar und unmittelbar zur Minderung des CO2-Ausstoßes und zur Speicherung von Kohlenstoff bei. Das REDD+-Regelwerk sieht vor, dass ergebnisbasierte Zahlungen für messbare und nachgewiesene CO2-Emissionsminderungen geleistet werden. Ziel ist es, diese Zahlungen von Deutschland an Entwicklungs- und Schwellenländer bis 2030 zu steigern.</t>
@@ -2200,14 +2173,14 @@
     <t>Verdopplung des Anteils von 2014 bis 2030</t>
   </si>
   <si>
-    <t>Einheit_DE</t>
+    <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 µ/m3 für  M10 im Jahresmittel möglichst flächendeckend bis 2030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2217,6 +2190,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2315,15 +2293,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2647,10 +2628,13 @@
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="65.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="22" width="13.85546875" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="57.5703125" customWidth="1"/>
+    <col min="18" max="18" width="73.28515625" customWidth="1"/>
+    <col min="19" max="22" width="13.85546875" customWidth="1"/>
+    <col min="23" max="23" width="90" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
     <col min="25" max="25" width="7.5703125" customWidth="1"/>
     <col min="26" max="26" width="5.5703125" customWidth="1"/>
@@ -2704,1461 +2688,1461 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>719</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="Q4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="Q7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="Q8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="Q9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="Q10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="Q11" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI12" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="Q13" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="Q14" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -4211,58 +4195,58 @@
         <v>184</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" s="2" t="s">
         <v>190</v>
@@ -4318,58 +4302,58 @@
         <v>192</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" s="2" t="s">
         <v>198</v>
@@ -4425,55 +4409,55 @@
         <v>206</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>211</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" s="2" t="s">
         <v>212</v>
@@ -4532,55 +4516,55 @@
         <v>206</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>211</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" s="2" t="s">
         <v>217</v>
@@ -4639,58 +4623,58 @@
         <v>225</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>231</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI19" s="2" t="s">
         <v>232</v>
@@ -4749,55 +4733,55 @@
         <v>240</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI20" s="2" t="s">
         <v>241</v>
@@ -4853,7 +4837,7 @@
         <v>243</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>249</v>
@@ -4862,49 +4846,49 @@
         <v>250</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI21" s="2" t="s">
         <v>251</v>
@@ -4963,55 +4947,55 @@
         <v>263</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" s="2" t="s">
         <v>264</v>
@@ -5070,55 +5054,55 @@
         <v>271</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>272</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" s="2" t="s">
         <v>273</v>
@@ -5177,55 +5161,55 @@
         <v>284</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI24" s="2" t="s">
         <v>285</v>
@@ -5281,55 +5265,55 @@
         <v>295</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>299</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W25" s="2" t="s">
         <v>300</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" s="2" t="s">
         <v>301</v>
@@ -5388,55 +5372,55 @@
         <v>295</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>299</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>300</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH26" s="2" t="s">
         <v>306</v>
@@ -5498,55 +5482,55 @@
         <v>318</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI27" s="2" t="s">
         <v>319</v>
@@ -5605,55 +5589,55 @@
         <v>318</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" s="2" t="s">
         <v>327</v>
@@ -5709,58 +5693,58 @@
         <v>331</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W29" s="2" t="s">
         <v>336</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI29" s="2" t="s">
         <v>337</v>
@@ -5807,7 +5791,7 @@
         <v>347</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>348</v>
@@ -5822,49 +5806,49 @@
         <v>350</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W30" s="2" t="s">
         <v>351</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH30" s="2" t="s">
         <v>352</v>
@@ -5914,7 +5898,7 @@
         <v>347</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>348</v>
@@ -5929,49 +5913,49 @@
         <v>350</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>351</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH31" s="2" t="s">
         <v>357</v>
@@ -6036,52 +6020,52 @@
         <v>366</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W32" s="2" t="s">
         <v>300</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" s="2" t="s">
         <v>367</v>
@@ -6137,58 +6121,58 @@
         <v>369</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>377</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" s="2" t="s">
         <v>378</v>
@@ -6244,58 +6228,58 @@
         <v>380</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W34" s="2" t="s">
         <v>388</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" s="2" t="s">
         <v>389</v>
@@ -6351,55 +6335,55 @@
         <v>397</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH35" s="2" t="s">
         <v>401</v>
@@ -6458,55 +6442,55 @@
         <v>397</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH36" s="2" t="s">
         <v>406</v>
@@ -6568,55 +6552,55 @@
         <v>417</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" s="2" t="s">
         <v>418</v>
@@ -6672,58 +6656,58 @@
         <v>422</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>429</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI38" s="2" t="s">
         <v>430</v>
@@ -6779,58 +6763,58 @@
         <v>434</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI39" s="2" t="s">
         <v>442</v>
@@ -6877,7 +6861,7 @@
         <v>447</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>450</v>
@@ -6886,10 +6870,10 @@
         <v>444</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>451</v>
@@ -6901,43 +6885,43 @@
         <v>453</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI40" s="2" t="s">
         <v>454</v>
@@ -6993,58 +6977,58 @@
         <v>461</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI41" s="2" t="s">
         <v>466</v>
@@ -7100,58 +7084,58 @@
         <v>468</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>474</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W42" s="2" t="s">
         <v>475</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI42" s="2" t="s">
         <v>476</v>
@@ -7207,58 +7191,58 @@
         <v>478</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>474</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI43" s="2" t="s">
         <v>483</v>
@@ -7305,7 +7289,7 @@
         <v>489</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>491</v>
@@ -7320,52 +7304,52 @@
         <v>493</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W44" s="2" t="s">
         <v>494</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI44" s="2" t="s">
         <v>495</v>
@@ -7412,7 +7396,7 @@
         <v>498</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>500</v>
@@ -7427,52 +7411,52 @@
         <v>493</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>494</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI45" s="2" t="s">
         <v>495</v>
@@ -7531,55 +7515,55 @@
         <v>474</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI46" s="2" t="s">
         <v>508</v>
@@ -7635,58 +7619,58 @@
         <v>510</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W47" s="2" t="s">
         <v>300</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI47" s="2" t="s">
         <v>517</v>
@@ -7757,43 +7741,43 @@
         <v>532</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI48" s="2" t="s">
         <v>533</v>
@@ -7849,58 +7833,58 @@
         <v>535</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W49" s="2" t="s">
         <v>542</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI49" s="2" t="s">
         <v>543</v>
@@ -7959,55 +7943,55 @@
         <v>553</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W50" s="2" t="s">
         <v>554</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI50" s="2" t="s">
         <v>555</v>
@@ -8063,58 +8047,58 @@
         <v>557</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>564</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>565</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI51" s="2" t="s">
         <v>566</v>
@@ -8170,58 +8154,58 @@
         <v>573</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W52" s="2" t="s">
         <v>579</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI52" s="2" t="s">
         <v>580</v>
@@ -8277,58 +8261,58 @@
         <v>582</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI53" s="2" t="s">
         <v>588</v>
@@ -8387,52 +8371,52 @@
         <v>602</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" s="2" t="s">
         <v>603</v>
@@ -8494,55 +8478,55 @@
         <v>611</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI55" s="2" t="s">
         <v>612</v>
@@ -8601,55 +8585,55 @@
         <v>623</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W56" s="2" t="s">
         <v>624</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI56" s="2" t="s">
         <v>625</v>
@@ -8705,58 +8689,58 @@
         <v>627</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W57" s="2" t="s">
         <v>635</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI57" s="2" t="s">
         <v>636</v>
@@ -8803,7 +8787,7 @@
         <v>641</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>644</v>
@@ -8812,58 +8796,58 @@
         <v>638</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W58" s="2" t="s">
         <v>645</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI58" s="2" t="s">
         <v>646</v>
@@ -8922,55 +8906,55 @@
         <v>657</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" s="2" t="s">
         <v>658</v>
@@ -9029,55 +9013,55 @@
         <v>667</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI60" s="2" t="s">
         <v>668</v>
@@ -9136,52 +9120,52 @@
         <v>681</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH61" s="2" t="s">
         <v>682</v>
@@ -9243,52 +9227,52 @@
         <v>681</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH62" s="2" t="s">
         <v>687</v>
@@ -9347,58 +9331,58 @@
         <v>691</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W63" s="2" t="s">
         <v>300</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI63" s="2" t="s">
         <v>698</v>
@@ -9454,58 +9438,58 @@
         <v>700</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W64" s="2" t="s">
         <v>300</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI64" s="2" t="s">
         <v>707</v>
@@ -9561,58 +9545,58 @@
         <v>709</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W65" s="2" t="s">
         <v>717</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI65" s="2" t="s">
         <v>718</v>
